--- a/biology/Botanique/Séquences_Bois/Séquences_Bois.xlsx
+++ b/biology/Botanique/Séquences_Bois/Séquences_Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quences_Bois</t>
+          <t>Séquences_Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Séquences Bois est une revue bimestrielle français dédiée à l'architecture contemporaine en bois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quences_Bois</t>
+          <t>Séquences_Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue Séquences Bois est créée en 1994 par le Comité National pour le Développement du bois (CNDB), organisme français de promotion pour l'utilisation du bois fondé en 1989[1],[2]. Elle devient indépendante en 2018[3], appartenant désormais au Groupe Ficade, spécialisé dans les médias et évènements professionnels.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue Séquences Bois est créée en 1994 par le Comité National pour le Développement du bois (CNDB), organisme français de promotion pour l'utilisation du bois fondé en 1989,. Elle devient indépendante en 2018, appartenant désormais au Groupe Ficade, spécialisé dans les médias et évènements professionnels.
 En 2018, alors rédactrice en chef de la revue, Margotte Lamouroux s'associe à Jonas Tophoven, journaliste spécialisé, et à Nicole Valkyser-Bergman, organisatrice du Forum Bois Construction, pour créer le Prix international d'architecture bois, en collaboration avec d'autres revues d'architecture consacrées à la construction bois à travers le monde.
-En 2019, la rédaction alors dirigée par Sarah Ador crée les Trophées Séquences Bois, distinction reconduite tous les ans[4],[5] . En 2021, elle lance le Classement des agences d'architecture et bureaux d'études bas carbone, valorisant les maîtres d'œuvre investis dans la réhabilitation et la construction en matériaux naturels.
+En 2019, la rédaction alors dirigée par Sarah Ador crée les Trophées Séquences Bois, distinction reconduite tous les ans, . En 2021, elle lance le Classement des agences d'architecture et bureaux d'études bas carbone, valorisant les maîtres d'œuvre investis dans la réhabilitation et la construction en matériaux naturels.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9quences_Bois</t>
+          <t>Séquences_Bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue s'adresse à un large public d'architectes, de bureaux d'études et de maîtres d'ouvrage avec des rubriques dédiées[2],[6].
-Le média crée les trophées Séquences Bois au niveau national[5].
-La revue est membre de jury internationaux d'architecture comme le Prix international d'architecture bois[7], délivré chaque année par un ensemble de médias européens et américains spécialisés à l'occasion du Forum international Bois Construction[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue s'adresse à un large public d'architectes, de bureaux d'études et de maîtres d'ouvrage avec des rubriques dédiées,.
+Le média crée les trophées Séquences Bois au niveau national.
+La revue est membre de jury internationaux d'architecture comme le Prix international d'architecture bois, délivré chaque année par un ensemble de médias européens et américains spécialisés à l'occasion du Forum international Bois Construction.
 </t>
         </is>
       </c>
